--- a/Data/fake.xlsx
+++ b/Data/fake.xlsx
@@ -23276,8 +23276,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23288,10 +23291,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -23641,8 +23644,8 @@
   <sheetPr/>
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A208" sqref="$A208:$XFD208"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="6"/>
@@ -23653,29 +23656,30 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="19.0740740740741" style="1" customWidth="1"/>
     <col min="7" max="7" width="77.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -26052,13 +26056,13 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>409</v>
       </c>
       <c r="E105" s="1">
@@ -26067,7 +26071,7 @@
       <c r="F105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>410</v>
       </c>
     </row>
@@ -26075,13 +26079,13 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>412</v>
       </c>
       <c r="E106" s="1">
@@ -26090,7 +26094,7 @@
       <c r="F106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -26098,13 +26102,13 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>414</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>415</v>
       </c>
       <c r="E107" s="1">
@@ -26113,7 +26117,7 @@
       <c r="F107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -26121,13 +26125,13 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>417</v>
       </c>
       <c r="E108" s="1">
@@ -26136,7 +26140,7 @@
       <c r="F108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="2" t="s">
         <v>418</v>
       </c>
     </row>
@@ -26144,13 +26148,13 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>419</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E109" s="1">
@@ -26159,7 +26163,7 @@
       <c r="F109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>421</v>
       </c>
     </row>
@@ -26167,13 +26171,13 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E110" s="1">
@@ -26182,7 +26186,7 @@
       <c r="F110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>424</v>
       </c>
     </row>
@@ -26190,13 +26194,13 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>425</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E111" s="1">
@@ -26205,7 +26209,7 @@
       <c r="F111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -26213,13 +26217,13 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>428</v>
       </c>
       <c r="E112" s="1">
@@ -26228,7 +26232,7 @@
       <c r="F112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -26236,13 +26240,13 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>430</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>431</v>
       </c>
       <c r="E113" s="1">
@@ -26251,7 +26255,7 @@
       <c r="F113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -26259,13 +26263,13 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>434</v>
       </c>
       <c r="E114" s="1">
@@ -26274,7 +26278,7 @@
       <c r="F114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -26282,13 +26286,13 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>437</v>
       </c>
       <c r="E115" s="1">
@@ -26297,7 +26301,7 @@
       <c r="F115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>438</v>
       </c>
     </row>
@@ -26305,13 +26309,13 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E116" s="1">
@@ -26320,7 +26324,7 @@
       <c r="F116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26328,13 +26332,13 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>441</v>
       </c>
       <c r="E117" s="1">
@@ -26343,7 +26347,7 @@
       <c r="F117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>442</v>
       </c>
     </row>
@@ -26351,13 +26355,13 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>443</v>
       </c>
       <c r="E118" s="1">
@@ -26366,7 +26370,7 @@
       <c r="F118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>444</v>
       </c>
     </row>
@@ -26374,13 +26378,13 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E119" s="1">
@@ -26389,7 +26393,7 @@
       <c r="F119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>446</v>
       </c>
     </row>
@@ -26400,10 +26404,10 @@
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="5" t="s">
         <v>448</v>
       </c>
       <c r="E120" s="1">
@@ -26417,10 +26421,10 @@
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="5" t="s">
         <v>450</v>
       </c>
       <c r="E121" s="1">
@@ -26434,10 +26438,10 @@
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="6" t="s">
         <v>452</v>
       </c>
       <c r="E122" s="1">
@@ -26451,10 +26455,10 @@
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="6" t="s">
         <v>453</v>
       </c>
       <c r="E123" s="1">
@@ -26468,10 +26472,10 @@
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="5" t="s">
         <v>455</v>
       </c>
       <c r="E124" s="1">
@@ -26485,10 +26489,10 @@
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="6" t="s">
         <v>457</v>
       </c>
       <c r="E125" s="1">
@@ -26502,10 +26506,10 @@
       <c r="B126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="5" t="s">
         <v>458</v>
       </c>
       <c r="E126" s="1">
@@ -26519,10 +26523,10 @@
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="6" t="s">
         <v>459</v>
       </c>
       <c r="E127" s="1">
@@ -26536,10 +26540,10 @@
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="5" t="s">
         <v>460</v>
       </c>
       <c r="E128" s="1">
@@ -26553,10 +26557,10 @@
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="5" t="s">
         <v>462</v>
       </c>
       <c r="E129" s="1">
@@ -26570,10 +26574,10 @@
       <c r="B130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="5" t="s">
         <v>464</v>
       </c>
       <c r="E130" s="1">
@@ -26587,10 +26591,10 @@
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="5" t="s">
         <v>465</v>
       </c>
       <c r="E131" s="1">
@@ -26604,10 +26608,10 @@
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="5" t="s">
         <v>467</v>
       </c>
       <c r="E132" s="1">
@@ -26621,10 +26625,10 @@
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="5" t="s">
         <v>468</v>
       </c>
       <c r="E133" s="1">
@@ -26638,10 +26642,10 @@
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="5" t="s">
         <v>469</v>
       </c>
       <c r="E134" s="1">
@@ -26655,10 +26659,10 @@
       <c r="B135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="6" t="s">
         <v>471</v>
       </c>
       <c r="E135" s="1">
@@ -26672,10 +26676,10 @@
       <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="6" t="s">
         <v>472</v>
       </c>
       <c r="E136" s="1">
@@ -26689,10 +26693,10 @@
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="5" t="s">
         <v>473</v>
       </c>
       <c r="E137" s="1">
@@ -26706,10 +26710,10 @@
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="5" t="s">
         <v>475</v>
       </c>
       <c r="E138" s="1">
@@ -26723,10 +26727,10 @@
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="5" t="s">
         <v>477</v>
       </c>
       <c r="E139" s="1">
@@ -26740,10 +26744,10 @@
       <c r="B140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="5" t="s">
         <v>478</v>
       </c>
       <c r="E140" s="1">
@@ -26757,10 +26761,10 @@
       <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="5" t="s">
         <v>480</v>
       </c>
       <c r="E141" s="1">
@@ -26774,10 +26778,10 @@
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="6" t="s">
         <v>482</v>
       </c>
       <c r="E142" s="1">
@@ -26791,10 +26795,10 @@
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="5" t="s">
         <v>484</v>
       </c>
       <c r="E143" s="1">
@@ -26808,10 +26812,10 @@
       <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="5" t="s">
         <v>486</v>
       </c>
       <c r="E144" s="1">
@@ -26825,10 +26829,10 @@
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="5" t="s">
         <v>487</v>
       </c>
       <c r="E145" s="1">
@@ -26842,10 +26846,10 @@
       <c r="B146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="6" t="s">
         <v>489</v>
       </c>
       <c r="E146" s="1">
@@ -26859,10 +26863,10 @@
       <c r="B147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="5" t="s">
         <v>490</v>
       </c>
       <c r="E147" s="1">
@@ -26876,10 +26880,10 @@
       <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E148" s="1">
@@ -26893,10 +26897,10 @@
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="6" t="s">
         <v>492</v>
       </c>
       <c r="E149" s="1">
@@ -26910,10 +26914,10 @@
       <c r="B150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="6" t="s">
         <v>493</v>
       </c>
       <c r="E150" s="1">
@@ -26927,10 +26931,10 @@
       <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="6" t="s">
         <v>495</v>
       </c>
       <c r="E151" s="1">
@@ -26944,10 +26948,10 @@
       <c r="B152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="6" t="s">
         <v>496</v>
       </c>
       <c r="E152" s="1">
@@ -26961,10 +26965,10 @@
       <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="6" t="s">
         <v>497</v>
       </c>
       <c r="E153" s="1">
@@ -26978,10 +26982,10 @@
       <c r="B154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="6" t="s">
         <v>498</v>
       </c>
       <c r="E154" s="1">
@@ -26995,10 +26999,10 @@
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="6" t="s">
         <v>499</v>
       </c>
       <c r="E155" s="1">
@@ -27012,10 +27016,10 @@
       <c r="B156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="6" t="s">
         <v>500</v>
       </c>
       <c r="E156" s="1">
@@ -27029,10 +27033,10 @@
       <c r="B157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="5" t="s">
         <v>501</v>
       </c>
       <c r="E157" s="1">
@@ -27046,10 +27050,10 @@
       <c r="B158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="6" t="s">
         <v>502</v>
       </c>
       <c r="E158" s="1">
@@ -27063,10 +27067,10 @@
       <c r="B159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="6" t="s">
         <v>503</v>
       </c>
       <c r="E159" s="1">
@@ -27080,10 +27084,10 @@
       <c r="B160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="6" t="s">
         <v>504</v>
       </c>
       <c r="E160" s="1">
@@ -27097,10 +27101,10 @@
       <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="6" t="s">
         <v>505</v>
       </c>
       <c r="E161" s="1">
@@ -27114,10 +27118,10 @@
       <c r="B162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="6" t="s">
         <v>506</v>
       </c>
       <c r="E162" s="1">
@@ -27131,10 +27135,10 @@
       <c r="B163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="6" t="s">
         <v>507</v>
       </c>
       <c r="E163" s="1">
@@ -27148,10 +27152,10 @@
       <c r="B164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="6" t="s">
         <v>508</v>
       </c>
       <c r="E164" s="1">
@@ -27165,10 +27169,10 @@
       <c r="B165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="6" t="s">
         <v>509</v>
       </c>
       <c r="E165" s="1">
@@ -27182,10 +27186,10 @@
       <c r="B166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="6" t="s">
         <v>510</v>
       </c>
       <c r="E166" s="1">
@@ -27199,10 +27203,10 @@
       <c r="B167" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E167" s="1">
@@ -27216,10 +27220,10 @@
       <c r="B168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="6" t="s">
         <v>512</v>
       </c>
       <c r="E168" s="1">
@@ -27233,10 +27237,10 @@
       <c r="B169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="6" t="s">
         <v>513</v>
       </c>
       <c r="E169" s="1">
@@ -27250,10 +27254,10 @@
       <c r="B170" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="6" t="s">
         <v>514</v>
       </c>
       <c r="E170" s="1">
@@ -27267,10 +27271,10 @@
       <c r="B171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="6" t="s">
         <v>515</v>
       </c>
       <c r="E171" s="1">
@@ -27284,10 +27288,10 @@
       <c r="B172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="6" t="s">
         <v>516</v>
       </c>
       <c r="E172" s="1">
@@ -27301,10 +27305,10 @@
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="6" t="s">
         <v>517</v>
       </c>
       <c r="E173" s="1">
@@ -27318,10 +27322,10 @@
       <c r="B174" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="6" t="s">
         <v>518</v>
       </c>
       <c r="E174" s="1">
@@ -27335,10 +27339,10 @@
       <c r="B175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="6" t="s">
         <v>519</v>
       </c>
       <c r="E175" s="1">
@@ -27352,10 +27356,10 @@
       <c r="B176" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="5" t="s">
         <v>520</v>
       </c>
       <c r="E176" s="1">
@@ -27369,10 +27373,10 @@
       <c r="B177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="6" t="s">
         <v>521</v>
       </c>
       <c r="E177" s="1">
@@ -27386,10 +27390,10 @@
       <c r="B178" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="6" t="s">
         <v>522</v>
       </c>
       <c r="E178" s="1">
@@ -27403,10 +27407,10 @@
       <c r="B179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="6" t="s">
         <v>523</v>
       </c>
       <c r="E179" s="1">
@@ -27420,10 +27424,10 @@
       <c r="B180" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="6" t="s">
         <v>524</v>
       </c>
       <c r="E180" s="1">
@@ -27437,10 +27441,10 @@
       <c r="B181" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="6" t="s">
         <v>525</v>
       </c>
       <c r="E181" s="1">
@@ -27454,10 +27458,10 @@
       <c r="B182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="6" t="s">
         <v>526</v>
       </c>
       <c r="E182" s="1">
@@ -27471,10 +27475,10 @@
       <c r="B183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="6" t="s">
         <v>527</v>
       </c>
       <c r="E183" s="1">
@@ -27488,10 +27492,10 @@
       <c r="B184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="5" t="s">
         <v>528</v>
       </c>
       <c r="E184" s="1">
@@ -27505,10 +27509,10 @@
       <c r="B185" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="6" t="s">
         <v>529</v>
       </c>
       <c r="E185" s="1">
@@ -27522,10 +27526,10 @@
       <c r="B186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="5" t="s">
         <v>530</v>
       </c>
       <c r="E186" s="1">
@@ -27539,10 +27543,10 @@
       <c r="B187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="5" t="s">
         <v>531</v>
       </c>
       <c r="E187" s="1">
@@ -27556,10 +27560,10 @@
       <c r="B188" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="5" t="s">
         <v>532</v>
       </c>
       <c r="E188" s="1">
@@ -27573,10 +27577,10 @@
       <c r="B189" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="6" t="s">
         <v>533</v>
       </c>
       <c r="E189" s="1">
@@ -27590,10 +27594,10 @@
       <c r="B190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="6" t="s">
         <v>534</v>
       </c>
       <c r="E190" s="1">
@@ -27607,10 +27611,10 @@
       <c r="B191" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="6" t="s">
         <v>535</v>
       </c>
       <c r="E191" s="1">
@@ -27624,10 +27628,10 @@
       <c r="B192" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="5" t="s">
         <v>536</v>
       </c>
       <c r="E192" s="1">
@@ -27641,10 +27645,10 @@
       <c r="B193" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="6" t="s">
         <v>537</v>
       </c>
       <c r="E193" s="1">
@@ -27658,10 +27662,10 @@
       <c r="B194" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="5" t="s">
         <v>538</v>
       </c>
       <c r="E194" s="1">
@@ -27675,10 +27679,10 @@
       <c r="B195" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="6" t="s">
         <v>539</v>
       </c>
       <c r="E195" s="1">
@@ -27692,10 +27696,10 @@
       <c r="B196" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E196" s="1">
@@ -27709,10 +27713,10 @@
       <c r="B197" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="6" t="s">
         <v>541</v>
       </c>
       <c r="E197" s="1">
@@ -27726,10 +27730,10 @@
       <c r="B198" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="6" t="s">
         <v>542</v>
       </c>
       <c r="E198" s="1">
@@ -27743,10 +27747,10 @@
       <c r="B199" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="6" t="s">
         <v>543</v>
       </c>
       <c r="E199" s="1">
@@ -27760,10 +27764,10 @@
       <c r="B200" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="6" t="s">
         <v>544</v>
       </c>
       <c r="E200" s="1">
@@ -27777,10 +27781,10 @@
       <c r="B201" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D201" s="5" t="s">
         <v>545</v>
       </c>
       <c r="E201" s="1">
@@ -27794,10 +27798,10 @@
       <c r="B202" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="6" t="s">
         <v>546</v>
       </c>
       <c r="E202" s="1">
@@ -27811,10 +27815,10 @@
       <c r="B203" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="6" t="s">
         <v>547</v>
       </c>
       <c r="E203" s="1">
@@ -27828,10 +27832,10 @@
       <c r="B204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="5" t="s">
         <v>548</v>
       </c>
       <c r="E204" s="1">
@@ -27845,10 +27849,10 @@
       <c r="B205" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="5" t="s">
         <v>549</v>
       </c>
       <c r="E205" s="1">
@@ -27862,10 +27866,10 @@
       <c r="B206" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="6" t="s">
         <v>550</v>
       </c>
       <c r="E206" s="1">
@@ -27879,10 +27883,10 @@
       <c r="B207" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="5" t="s">
         <v>551</v>
       </c>
       <c r="E207" s="1">
@@ -27896,10 +27900,10 @@
       <c r="B208" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="6" t="s">
         <v>552</v>
       </c>
       <c r="E208" s="1">
@@ -27913,10 +27917,10 @@
       <c r="B209" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="5" t="s">
         <v>553</v>
       </c>
       <c r="E209" s="1">
@@ -27930,10 +27934,10 @@
       <c r="B210" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D210" s="5" t="s">
         <v>555</v>
       </c>
       <c r="E210" s="1">
@@ -27947,10 +27951,10 @@
       <c r="B211" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D211" s="5" t="s">
         <v>557</v>
       </c>
       <c r="E211" s="1">
@@ -27964,10 +27968,10 @@
       <c r="B212" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D212" s="5" t="s">
         <v>559</v>
       </c>
       <c r="E212" s="1">
@@ -27981,10 +27985,10 @@
       <c r="B213" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D213" s="5" t="s">
         <v>561</v>
       </c>
       <c r="E213" s="1">
@@ -27998,10 +28002,10 @@
       <c r="B214" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="D214" s="5" t="s">
         <v>563</v>
       </c>
       <c r="E214" s="1">
@@ -28015,10 +28019,10 @@
       <c r="B215" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="D215" s="5" t="s">
         <v>565</v>
       </c>
       <c r="E215" s="1">
@@ -28032,10 +28036,10 @@
       <c r="B216" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D216" s="5" t="s">
         <v>567</v>
       </c>
       <c r="E216" s="1">
@@ -28049,10 +28053,10 @@
       <c r="B217" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D217" s="5" t="s">
         <v>568</v>
       </c>
       <c r="E217" s="1">
@@ -28066,10 +28070,10 @@
       <c r="B218" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="D218" s="5" t="s">
         <v>569</v>
       </c>
       <c r="E218" s="1">
@@ -28083,10 +28087,10 @@
       <c r="B219" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="5" t="s">
         <v>571</v>
       </c>
       <c r="E219" s="1">
@@ -28100,10 +28104,10 @@
       <c r="B220" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D220" s="4" t="s">
+      <c r="D220" s="5" t="s">
         <v>573</v>
       </c>
       <c r="E220" s="1">
@@ -28117,10 +28121,10 @@
       <c r="B221" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="D221" s="5" t="s">
         <v>575</v>
       </c>
       <c r="E221" s="1">
@@ -28134,10 +28138,10 @@
       <c r="B222" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D222" s="5" t="s">
         <v>576</v>
       </c>
       <c r="E222" s="1">
@@ -28151,10 +28155,10 @@
       <c r="B223" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D223" s="5" t="s">
         <v>577</v>
       </c>
       <c r="E223" s="1">
@@ -28168,10 +28172,10 @@
       <c r="B224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="D224" s="5" t="s">
         <v>578</v>
       </c>
       <c r="E224" s="1">
@@ -28185,10 +28189,10 @@
       <c r="B225" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="D225" s="5" t="s">
         <v>579</v>
       </c>
       <c r="E225" s="1">
@@ -28202,10 +28206,10 @@
       <c r="B226" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="4" t="s">
+      <c r="D226" s="5" t="s">
         <v>580</v>
       </c>
       <c r="E226" s="1">
@@ -28219,10 +28223,10 @@
       <c r="B227" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D227" s="5" t="s">
         <v>581</v>
       </c>
       <c r="E227" s="1">
@@ -28236,10 +28240,10 @@
       <c r="B228" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="4" t="s">
+      <c r="D228" s="5" t="s">
         <v>582</v>
       </c>
       <c r="E228" s="1">
@@ -28253,10 +28257,10 @@
       <c r="B229" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="D229" s="5" t="s">
         <v>583</v>
       </c>
       <c r="E229" s="1">
@@ -28270,10 +28274,10 @@
       <c r="B230" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="4" t="s">
+      <c r="D230" s="5" t="s">
         <v>584</v>
       </c>
       <c r="E230" s="1">
@@ -28287,10 +28291,10 @@
       <c r="B231" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D231" s="5" t="s">
         <v>585</v>
       </c>
       <c r="E231" s="1">
@@ -28304,10 +28308,10 @@
       <c r="B232" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D232" s="5" t="s">
         <v>586</v>
       </c>
       <c r="E232" s="1">
@@ -28321,10 +28325,10 @@
       <c r="B233" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="D233" s="5" t="s">
         <v>587</v>
       </c>
       <c r="E233" s="1">
@@ -28338,10 +28342,10 @@
       <c r="B234" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="D234" s="5" t="s">
         <v>588</v>
       </c>
       <c r="E234" s="1">
@@ -28355,10 +28359,10 @@
       <c r="B235" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="4" t="s">
+      <c r="D235" s="5" t="s">
         <v>589</v>
       </c>
       <c r="E235" s="1">
@@ -28372,10 +28376,10 @@
       <c r="B236" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D236" s="4" t="s">
+      <c r="D236" s="5" t="s">
         <v>590</v>
       </c>
       <c r="E236" s="1">
@@ -28389,10 +28393,10 @@
       <c r="B237" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="4" t="s">
+      <c r="D237" s="5" t="s">
         <v>591</v>
       </c>
       <c r="E237" s="1">
@@ -28406,10 +28410,10 @@
       <c r="B238" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="D238" s="5" t="s">
         <v>592</v>
       </c>
       <c r="E238" s="1">
@@ -28423,10 +28427,10 @@
       <c r="B239" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="4" t="s">
+      <c r="D239" s="5" t="s">
         <v>593</v>
       </c>
       <c r="E239" s="1">
@@ -28440,10 +28444,10 @@
       <c r="B240" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="D240" s="5" t="s">
         <v>594</v>
       </c>
       <c r="E240" s="1">
@@ -28457,10 +28461,10 @@
       <c r="B241" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="4" t="s">
+      <c r="D241" s="5" t="s">
         <v>595</v>
       </c>
       <c r="E241" s="1">
@@ -28474,10 +28478,10 @@
       <c r="B242" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D242" s="5" t="s">
         <v>596</v>
       </c>
       <c r="E242" s="1">
@@ -28491,10 +28495,10 @@
       <c r="B243" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="4" t="s">
+      <c r="D243" s="5" t="s">
         <v>597</v>
       </c>
       <c r="E243" s="1">
@@ -28508,10 +28512,10 @@
       <c r="B244" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="D244" s="5" t="s">
         <v>598</v>
       </c>
       <c r="E244" s="1">
@@ -28525,10 +28529,10 @@
       <c r="B245" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="4" t="s">
+      <c r="D245" s="5" t="s">
         <v>599</v>
       </c>
       <c r="E245" s="1">
@@ -28542,10 +28546,10 @@
       <c r="B246" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="4" t="s">
+      <c r="D246" s="5" t="s">
         <v>600</v>
       </c>
       <c r="E246" s="1">
@@ -28559,10 +28563,10 @@
       <c r="B247" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D247" s="4" t="s">
+      <c r="D247" s="5" t="s">
         <v>601</v>
       </c>
       <c r="E247" s="1">
@@ -28576,10 +28580,10 @@
       <c r="B248" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="4" t="s">
+      <c r="D248" s="5" t="s">
         <v>602</v>
       </c>
       <c r="E248" s="1">
@@ -28593,10 +28597,10 @@
       <c r="B249" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="4" t="s">
+      <c r="D249" s="5" t="s">
         <v>603</v>
       </c>
       <c r="E249" s="1">
@@ -28610,10 +28614,10 @@
       <c r="B250" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D250" s="4" t="s">
+      <c r="D250" s="5" t="s">
         <v>604</v>
       </c>
       <c r="E250" s="1">
@@ -28627,10 +28631,10 @@
       <c r="B251" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D251" s="4" t="s">
+      <c r="D251" s="5" t="s">
         <v>605</v>
       </c>
       <c r="E251" s="1">
@@ -28644,10 +28648,10 @@
       <c r="B252" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D252" s="4" t="s">
+      <c r="D252" s="5" t="s">
         <v>606</v>
       </c>
       <c r="E252" s="1">
@@ -28661,10 +28665,10 @@
       <c r="B253" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="4" t="s">
+      <c r="D253" s="5" t="s">
         <v>607</v>
       </c>
       <c r="E253" s="1">
@@ -28678,10 +28682,10 @@
       <c r="B254" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D254" s="4" t="s">
+      <c r="D254" s="5" t="s">
         <v>608</v>
       </c>
       <c r="E254" s="1">
@@ -28695,10 +28699,10 @@
       <c r="B255" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="4" t="s">
+      <c r="D255" s="5" t="s">
         <v>609</v>
       </c>
       <c r="E255" s="1">
@@ -28712,10 +28716,10 @@
       <c r="B256" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D256" s="4" t="s">
+      <c r="D256" s="5" t="s">
         <v>610</v>
       </c>
       <c r="E256" s="1">
@@ -28729,10 +28733,10 @@
       <c r="B257" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D257" s="4" t="s">
+      <c r="D257" s="5" t="s">
         <v>611</v>
       </c>
       <c r="E257" s="1">
@@ -28746,10 +28750,10 @@
       <c r="B258" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D258" s="4" t="s">
+      <c r="D258" s="5" t="s">
         <v>612</v>
       </c>
       <c r="E258" s="1">
@@ -28763,10 +28767,10 @@
       <c r="B259" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D259" s="4" t="s">
+      <c r="D259" s="5" t="s">
         <v>613</v>
       </c>
       <c r="E259" s="1">

--- a/Data/fake.xlsx
+++ b/Data/fake.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="847">
   <si>
     <t>date</t>
   </si>
@@ -36023,6 +36023,617 @@
     }
 ]</t>
   </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100071065767015</t>
+  </si>
+  <si>
+    <t>Cháy một loạt 21 chiếc xe điện phục vụ du lịch ở Hội An, nhiều nhân viên đã tử vong ÔI THƯƠNG QUÁ XEM MÀ RÙNG MÌNH 
+full video xem chi tiết dưới bình luận</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2015973708817035/</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vĩnh biệt nữ ca sỹ nổi tiếng vừa qua đời ở tuổi 21
+XOT XA CHO SHOWBIT QUA
+THƯƠNG E </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2016492942098445/</t>
+  </si>
+  <si>
+    <r>
+      <t>NGAY LÚC NÀY KINH HOÀNG: XE KHÁCH CH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30 HÀNH KHÁCH B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c cháy ngùn ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t Trên Cao T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c..
+N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M LA LI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">I </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2016610712086668/</t>
+  </si>
+  <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Ninh – nơi đau thương lạnh lẽo nhất lúc này: HÀNG LOẠT công nhân khai thác hầm lò đã …LA LIỆT RỒI
+XEM RÙNG MÌNH 
+CHI TIẾT DƯỚI BÌNH LUẬN </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2016643395416733/</t>
+  </si>
+  <si>
+    <t>30/07/2026</t>
+  </si>
+  <si>
+    <t>Vụ chồng "xuống tay" khiến vợ "ra đi" ở Ninh Bình: 2 con nhỏ chứng kiến tất cả, ám ảnh tiếng la hét trong tuyệt vọng</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2016660418748364/</t>
+  </si>
+  <si>
+    <t>30/07/2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thu Vân - Em gái 'thầy ông nội' Tịnh thất Bồng lai vừa tu vong khi đang ..Dấu chấm hết chính thức cho Tịnh Thất Bồng Lai
+ÔI TO CHUYỆN RỒI XEM MÀ RÙNG MÌNH </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2016712105409862/</t>
+  </si>
+  <si>
+    <t>30/07/2028</t>
+  </si>
+  <si>
+    <t>Hang Sửng Sốt Quảng Ninh: Địa điểm NÓNG nhất lúc này
+LA LIỆT LUÔN RỒI PHONG TỎA LUÔN RỒI
+XEM RÙNG MÌNH</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2017500771997662/</t>
+  </si>
+  <si>
+    <t>30/07/2029</t>
+  </si>
+  <si>
+    <t>Vừa xong: ‘Con gái’ xinh như hoa của nghệ sĩ Hồng Vân qua đời đột ngột khiến ai cũng thương tiếc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2017585675322505/</t>
+  </si>
+  <si>
+    <t>30/07/2030</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u bé Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ng tiên tri nói v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y ra v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i con ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">m 2024, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u cu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i cùng khi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n nhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ườ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Historic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i RÙNG MÌNH</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2017659938648412/</t>
+  </si>
+  <si>
+    <t>30/07/2031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiện trường kinh hoàng  xe tải cố vượt đường ray, khiến tàu hỏa trật bánh, vỡ nát: Ít nhất 100 người thương vong, hành khách hoảng loạn 
+XEM RÙNG MÌNH </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2017906235290449/</t>
+  </si>
+  <si>
+    <t>Dự báo cơn bão lớn đen tối nhất của mùa bão 2024
+1 siêu bão mạnh chưa từng có cực kì đáng lo
+bà con lại khổ rồi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2018681988546207/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SỐC RƠI CÁP TREO khiến 20 người tu vong tại chỗ 
+SỐC RƠI CÁP TREO khiến 20 người tu vong tại chỗ 
+SỐC RƠI CÁP TREO khiến 20 người tu vong tại chỗ 
+SỐC RƠI CÁP TREO khiến 20 người tu vong tại chỗ 
+</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2019110308503375/</t>
+  </si>
+  <si>
+    <t>30/07/2032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bắc Kạn đau lòng nhất lúc này NẰM la liệt RỒI THƯƠNG LẮM BẮC CẠN ƠI </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2019290375152035/</t>
+  </si>
+  <si>
+    <t>Cầu Long Biên: Địa điểm hot nhất lúc này?
+NẰM LA LIỆT RỒI 
+PHONG TỎA LUÔN RỒI</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2019330728481333/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100058974272428</t>
+  </si>
+  <si>
+    <t>Vừa xong công an phong toả luôn rồi thương tâm quá</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/1983769215370818/</t>
+  </si>
+  <si>
+    <t>Vừa xong,kinh hoàng quá, MÓNG CÁI nằm la liệt cả rồi
+ai là người nhà lên nhận đi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/1983575948723478/</t>
+  </si>
+  <si>
+    <t>Từ hôm nay người dân có thể mua vàng online
+GIÁ VÀNG CHOÁNG VÁNG</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/1983494598731613/</t>
+  </si>
+  <si>
+    <t>NÓNG : KHÔNG CÒN AI XẾP HÀNG MUA VÀNG NỮA CHỈ VÌ....</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/1983816602032746/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BIẾN CĂNG Ông chủ Salon tóc 1900 có động thái lạ
+SỰ THẬT PHƠI BÀY</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/1984283268652746/</t>
+  </si>
+  <si>
+    <t>Động thái lạ của ông chủ salon 1900 trước nghi vấn ăn chặn 650 bộ tóc từ thiện cho bệnh nhân ung thư, những bộ tóc này đi về đâu?</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/1984299608651112/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nghẹn lòng xót xa gia đình ông Thích Minh Tuệ nhận tin buồn lớn, người nhà ngày đêm túc trực trong viện chỉ mong sớm qua ‘kiếp nạn’
+THƯƠNG THẦY QUÁ </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/943533259394424/permalink/2019520211795718/</t>
+  </si>
+  <si>
+    <t>NGƯỜI DÂN XẾP HÀNG DÀI CHỜ XÉT NGHIỆM BẠCH HẦU</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247</t>
+  </si>
+  <si>
+    <t>vừa xong: tai nạn giao thông liên hoàn khiến 6 người thương vong</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/528530186395170?ref=embed_post</t>
+  </si>
 </sst>
 </file>
 
@@ -36034,7 +36645,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36058,11 +36669,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.5"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -36207,6 +36823,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF050505"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -36542,16 +37164,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -36560,119 +37179,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -36701,7 +37323,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37048,16 +37684,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.8148148148148" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.2222222222222" style="2"/>
+    <col min="2" max="2" width="36.1944444444444" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.5185185185185" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="19.0740740740741" style="2" customWidth="1"/>
@@ -43235,11 +43871,471 @@
       <c r="C309" s="10" t="s">
         <v>787</v>
       </c>
+      <c r="D309" s="2">
+        <v>0</v>
+      </c>
       <c r="E309" s="10" t="s">
         <v>788</v>
       </c>
       <c r="F309" s="10" t="s">
         <v>789</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="1:6">
+      <c r="A310" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="D310" s="2">
+        <v>0</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:6">
+      <c r="A311" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="D311" s="2">
+        <v>0</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:6">
+      <c r="A312" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="D312" s="2">
+        <v>0</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:6">
+      <c r="A313" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="D313" s="2">
+        <v>0</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:6">
+      <c r="A314" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D314" s="2">
+        <v>0</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:6">
+      <c r="A315" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="D315" s="2">
+        <v>0</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:6">
+      <c r="A316" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="D316" s="2">
+        <v>0</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:6">
+      <c r="A317" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D317" s="2">
+        <v>0</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="1:6">
+      <c r="A318" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C318" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="D318" s="2">
+        <v>0</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="1:6">
+      <c r="A319" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="D319" s="2">
+        <v>0</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="2:6">
+      <c r="B320" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D320" s="2">
+        <v>0</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="1:6">
+      <c r="A321" s="15">
+        <v>45330</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="D321" s="2">
+        <v>0</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="1:6">
+      <c r="A322" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D322" s="2">
+        <v>0</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="1:6">
+      <c r="A323" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="D323" s="2">
+        <v>0</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="1:6">
+      <c r="A324" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D324" s="2">
+        <v>0</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="1:6">
+      <c r="A325" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="D325" s="2">
+        <v>0</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" customHeight="1" spans="1:6">
+      <c r="A326" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="D326" s="2">
+        <v>0</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="1:6">
+      <c r="A327" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D327" s="2">
+        <v>0</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="1:6">
+      <c r="A328" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="D328" s="2">
+        <v>0</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="1:6">
+      <c r="A329" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D329" s="2">
+        <v>0</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="1:6">
+      <c r="A330" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D330" s="2">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" customHeight="1" spans="1:6">
+      <c r="A331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="D331" s="2">
+        <v>0</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" customHeight="1" spans="1:6">
+      <c r="A332" s="15">
+        <v>45481</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D332" s="2">
+        <v>0</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/fake.xlsx
+++ b/Data/fake.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="10668" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1257">
   <si>
     <t>date</t>
   </si>
@@ -51306,6 +51306,90 @@
         "content": "Ngu thì chết"
     }
 ]</t>
+  </si>
+  <si>
+    <t>CLiP: HỖN chiến KINH HOÀNG SAU MÀN chèn ép NHAU TRÊN QUỐC LỘ GIỮA 2 XE KHÁCH 16 CHỖ..
+CLiP HÀNH ĐỘNG NHƯ PHIM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid02xyTUYFMkhWH1gukupKiA5YodFAty43GgFs6a64wGJ8ibhQiuPvJYSggUUY9ZXHsql</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247248</t>
+  </si>
+  <si>
+    <t>BÀNG HOÀNG: Con trai bất ngờ chém mẹ đẻ và dì ruột trong đêm...
+Clip ám ảnh yếu tim cân nhắc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0QAULdz13HqeUpvUxjieHNhYB92Wfy8snASZABqXout1eWu3qUQNy1hyigjj8vx8Nl</t>
+  </si>
+  <si>
+    <t>ĐAU LÒNG: Mẹ đơn thân bị sét đánh ra đi mãi mãi khi đi chăn trâu, bỏ lại con nhỏ mới 7 tuổi..
+Chi tiết</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid02qVTPqcQHX34Zy4c6RgvC6sa8bytAMmC3qzgsJcKLWhbYFTJayzDvcBLBGkNVwWznl</t>
+  </si>
+  <si>
+    <t>PHẪN NỘ: bị tát, con trai dùng dao chém bố ɡᴜ̣ᴄ tại chỗ..</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid02MLz17NGG6FuajgxUHroBsZnFJs7NQfnAhN6rEdXDemx62xxbxKEcv5N4QdRswHaRl</t>
+  </si>
+  <si>
+    <t>LẠNH NHẤT LÚC NAY!!
+MÂU THUẪN GIA ĐÌNH: BỐ CHỒNG chém CON DÂU tu vong TẠI CHỖ...</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0RkRixdVGyd5HvJf8x6qKhXNFv4kVVPs6dNjJRVaW2oVyGT5bUEwyo3FvGJAwsPhPl</t>
+  </si>
+  <si>
+    <t>Giải cứu trẻ dưới 14 tuổi bị mẹ ruột mang con gái từ quê lên thành phố để bán dâm cho người khác nhiều lần</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid036Ay513i9rYZ6nayAtpkEGi6axdVvXhLryxSiGEKM8VBkBqjQ8daDu26B6MwQrbkBl</t>
+  </si>
+  <si>
+    <t>CĂNG ĐÉT
+Cô gái người nước ngoài гơi từ ᴄһᴜпɡ ᴄư cao tầng tu vong luôn rùi...</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0VLgzXt8PYMT5my6pJ8LPCiDZvnAXZ1f78jaYcQsH8FUAw2Wp79WMDfMwQSUgdkV3l</t>
+  </si>
+  <si>
+    <t>Hai bà cháu đi xe máy va chạm với xe con đi ngược chiều cháu gái t:ử v:ong, bà bị th:ương nặng.
+CLiP HIỆN TRƯỜNG ÁM ẢNH CÂN NHẮC</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0xqhoq5fvDb7ZnUmMDfipo9TahcFuoyZaMVMYKc6iU91W7ZkXosMTdHWhbVh7suU5l</t>
+  </si>
+  <si>
+    <t>PHẪN NỘ TỘT CÙNG: SAU CHẦU NHẬU CÙNG CHỦ NHÀ ĐỐI TƯỢNG bóp cổ 𝖵А̀ ᙭âm hại cháu bé 7 tuổi đến bất tỉnh</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0rWYGqiFd364ZiVuTKbfupxQ3YXKkBCt4NnkSrCWeTgjv8fMqhZzn8V8pNAyDsRVxl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid02wmEZxhRZvAKx4BQc3243wps6zYaTwJHbpxTi9Xq6CNJnSt6u45Bv7o1Siqs5EWEal</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247249</t>
+  </si>
+  <si>
+    <t>SỐC: Hiện trường tan nát Nữ tài xế ô tô đạp nhầm chân ga gây tai nạn liên hoàn trên phố đông người.</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0ydTqDzuVCkoeR7ryo794xijYctsXmW7uX2fkwGg1SXzcoUB4hbMDrPSrCaFPat7tl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247250</t>
+  </si>
+  <si>
+    <t>XÓT XA: KHI LÒNG TỐT ĐẶT KHÔNG ĐÚNG CHỖ: nghi phạm xin đi nhờ xe rồi giết người cướp của</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tintuc247247/posts/pfbid0Q1QbsAMkEmXTx3rmGeLmmd8iPTuM7EkvygqvY5kvEnsjYjcweR3HEkgjXB6j9ps8l</t>
   </si>
 </sst>
 </file>
@@ -51967,7 +52051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -52006,6 +52090,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -52354,10 +52441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A433" sqref="$A433:$XFD433"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B427" workbookViewId="0">
+      <selection activeCell="D387" sqref="D387:D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
@@ -52402,7 +52489,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -52422,7 +52509,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -52442,7 +52529,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -52462,7 +52549,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -52482,7 +52569,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
@@ -52502,7 +52589,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -52522,7 +52609,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
@@ -52542,7 +52629,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
@@ -52562,7 +52649,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>42</v>
@@ -52582,7 +52669,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>45</v>
@@ -52602,7 +52689,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>49</v>
@@ -52622,7 +52709,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>53</v>
@@ -52642,7 +52729,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>57</v>
@@ -52662,7 +52749,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>61</v>
@@ -52682,7 +52769,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>65</v>
@@ -52702,7 +52789,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>69</v>
@@ -52722,7 +52809,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>73</v>
@@ -52742,7 +52829,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>77</v>
@@ -52762,7 +52849,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>81</v>
@@ -52782,7 +52869,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>85</v>
@@ -52802,7 +52889,7 @@
         <v>88</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>89</v>
@@ -52822,7 +52909,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>93</v>
@@ -52842,7 +52929,7 @@
         <v>96</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>97</v>
@@ -52862,7 +52949,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>100</v>
@@ -52882,7 +52969,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>103</v>
@@ -52902,7 +52989,7 @@
         <v>106</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>107</v>
@@ -52922,7 +53009,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>111</v>
@@ -52942,7 +53029,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>115</v>
@@ -52962,7 +53049,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>119</v>
@@ -52982,7 +53069,7 @@
         <v>122</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>123</v>
@@ -53002,7 +53089,7 @@
         <v>126</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>127</v>
@@ -53022,7 +53109,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>131</v>
@@ -53042,7 +53129,7 @@
         <v>134</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>135</v>
@@ -53062,7 +53149,7 @@
         <v>138</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>139</v>
@@ -53082,7 +53169,7 @@
         <v>142</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>143</v>
@@ -53102,7 +53189,7 @@
         <v>146</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>147</v>
@@ -53122,7 +53209,7 @@
         <v>150</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>151</v>
@@ -53142,7 +53229,7 @@
         <v>153</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>154</v>
@@ -53162,7 +53249,7 @@
         <v>157</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>158</v>
@@ -53182,7 +53269,7 @@
         <v>161</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>162</v>
@@ -53202,7 +53289,7 @@
         <v>165</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>166</v>
@@ -53222,7 +53309,7 @@
         <v>169</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>170</v>
@@ -53242,7 +53329,7 @@
         <v>173</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>174</v>
@@ -53262,7 +53349,7 @@
         <v>177</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>178</v>
@@ -53282,7 +53369,7 @@
         <v>181</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>182</v>
@@ -53302,7 +53389,7 @@
         <v>185</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>186</v>
@@ -53322,7 +53409,7 @@
         <v>189</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>190</v>
@@ -53342,7 +53429,7 @@
         <v>193</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>194</v>
@@ -53362,7 +53449,7 @@
         <v>197</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>198</v>
@@ -53382,7 +53469,7 @@
         <v>165</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>201</v>
@@ -53402,7 +53489,7 @@
         <v>204</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>205</v>
@@ -53422,7 +53509,7 @@
         <v>208</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>209</v>
@@ -53442,7 +53529,7 @@
         <v>212</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>213</v>
@@ -53462,7 +53549,7 @@
         <v>215</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>216</v>
@@ -53482,7 +53569,7 @@
         <v>219</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>220</v>
@@ -53502,7 +53589,7 @@
         <v>223</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>224</v>
@@ -53522,7 +53609,7 @@
         <v>227</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>228</v>
@@ -53542,7 +53629,7 @@
         <v>231</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>232</v>
@@ -53562,7 +53649,7 @@
         <v>235</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>236</v>
@@ -53582,7 +53669,7 @@
         <v>239</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>240</v>
@@ -53602,7 +53689,7 @@
         <v>243</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>244</v>
@@ -53622,7 +53709,7 @@
         <v>246</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>247</v>
@@ -53642,7 +53729,7 @@
         <v>250</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>251</v>
@@ -53662,7 +53749,7 @@
         <v>254</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>255</v>
@@ -53682,7 +53769,7 @@
         <v>258</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>259</v>
@@ -53702,7 +53789,7 @@
         <v>261</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>262</v>
@@ -53722,7 +53809,7 @@
         <v>265</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>266</v>
@@ -53742,7 +53829,7 @@
         <v>269</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>270</v>
@@ -53762,7 +53849,7 @@
         <v>273</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>274</v>
@@ -53782,7 +53869,7 @@
         <v>277</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>278</v>
@@ -53802,7 +53889,7 @@
         <v>281</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>282</v>
@@ -53822,7 +53909,7 @@
         <v>284</v>
       </c>
       <c r="D73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>285</v>
@@ -53842,7 +53929,7 @@
         <v>287</v>
       </c>
       <c r="D74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>288</v>
@@ -53862,7 +53949,7 @@
         <v>44</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>45</v>
@@ -53882,7 +53969,7 @@
         <v>293</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>294</v>
@@ -53902,7 +53989,7 @@
         <v>297</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>298</v>
@@ -53922,7 +54009,7 @@
         <v>301</v>
       </c>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>302</v>
@@ -53942,7 +54029,7 @@
         <v>305</v>
       </c>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>306</v>
@@ -53962,7 +54049,7 @@
         <v>309</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>310</v>
@@ -53982,7 +54069,7 @@
         <v>313</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>314</v>
@@ -54002,7 +54089,7 @@
         <v>317</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>318</v>
@@ -54022,7 +54109,7 @@
         <v>321</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>322</v>
@@ -54042,7 +54129,7 @@
         <v>325</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>326</v>
@@ -54062,7 +54149,7 @@
         <v>329</v>
       </c>
       <c r="D85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>330</v>
@@ -54082,7 +54169,7 @@
         <v>333</v>
       </c>
       <c r="D86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>334</v>
@@ -54102,7 +54189,7 @@
         <v>337</v>
       </c>
       <c r="D87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>338</v>
@@ -54122,7 +54209,7 @@
         <v>341</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>342</v>
@@ -54142,7 +54229,7 @@
         <v>345</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>346</v>
@@ -54162,7 +54249,7 @@
         <v>349</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>350</v>
@@ -54182,7 +54269,7 @@
         <v>353</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>354</v>
@@ -54202,7 +54289,7 @@
         <v>357</v>
       </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>358</v>
@@ -54222,7 +54309,7 @@
         <v>361</v>
       </c>
       <c r="D93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>362</v>
@@ -54242,7 +54329,7 @@
         <v>365</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>366</v>
@@ -54262,7 +54349,7 @@
         <v>177</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>369</v>
@@ -54282,7 +54369,7 @@
         <v>372</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>373</v>
@@ -54302,7 +54389,7 @@
         <v>376</v>
       </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>377</v>
@@ -54322,7 +54409,7 @@
         <v>380</v>
       </c>
       <c r="D98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>381</v>
@@ -54342,7 +54429,7 @@
         <v>384</v>
       </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>385</v>
@@ -54362,7 +54449,7 @@
         <v>388</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>389</v>
@@ -54382,7 +54469,7 @@
         <v>392</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>393</v>
@@ -54402,7 +54489,7 @@
         <v>396</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>397</v>
@@ -54422,7 +54509,7 @@
         <v>400</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>401</v>
@@ -54442,7 +54529,7 @@
         <v>404</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>405</v>
@@ -54462,7 +54549,7 @@
         <v>408</v>
       </c>
       <c r="D105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>6</v>
@@ -54482,7 +54569,7 @@
         <v>411</v>
       </c>
       <c r="D106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>6</v>
@@ -54502,7 +54589,7 @@
         <v>414</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>6</v>
@@ -54522,7 +54609,7 @@
         <v>416</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>6</v>
@@ -54542,7 +54629,7 @@
         <v>419</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>6</v>
@@ -54562,7 +54649,7 @@
         <v>422</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>6</v>
@@ -54582,7 +54669,7 @@
         <v>425</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>6</v>
@@ -54602,7 +54689,7 @@
         <v>427</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>6</v>
@@ -54622,7 +54709,7 @@
         <v>430</v>
       </c>
       <c r="D113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>6</v>
@@ -54642,7 +54729,7 @@
         <v>433</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>6</v>
@@ -54662,7 +54749,7 @@
         <v>436</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>6</v>
@@ -54682,7 +54769,7 @@
         <v>438</v>
       </c>
       <c r="D116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>6</v>
@@ -54702,7 +54789,7 @@
         <v>440</v>
       </c>
       <c r="D117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>6</v>
@@ -54722,7 +54809,7 @@
         <v>442</v>
       </c>
       <c r="D118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>6</v>
@@ -54742,7 +54829,7 @@
         <v>444</v>
       </c>
       <c r="D119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>6</v>
@@ -54762,7 +54849,7 @@
         <v>447</v>
       </c>
       <c r="D120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>6</v>
@@ -54782,7 +54869,7 @@
         <v>449</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>6</v>
@@ -54802,7 +54889,7 @@
         <v>451</v>
       </c>
       <c r="D122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>6</v>
@@ -54822,7 +54909,7 @@
         <v>452</v>
       </c>
       <c r="D123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>6</v>
@@ -54842,7 +54929,7 @@
         <v>454</v>
       </c>
       <c r="D124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>6</v>
@@ -54862,7 +54949,7 @@
         <v>456</v>
       </c>
       <c r="D125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>6</v>
@@ -54882,7 +54969,7 @@
         <v>457</v>
       </c>
       <c r="D126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>6</v>
@@ -54902,7 +54989,7 @@
         <v>458</v>
       </c>
       <c r="D127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>6</v>
@@ -54922,7 +55009,7 @@
         <v>459</v>
       </c>
       <c r="D128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>6</v>
@@ -54942,7 +55029,7 @@
         <v>461</v>
       </c>
       <c r="D129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>6</v>
@@ -54962,7 +55049,7 @@
         <v>463</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>6</v>
@@ -54982,7 +55069,7 @@
         <v>464</v>
       </c>
       <c r="D131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>6</v>
@@ -55002,7 +55089,7 @@
         <v>466</v>
       </c>
       <c r="D132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>6</v>
@@ -55022,7 +55109,7 @@
         <v>467</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>6</v>
@@ -55042,7 +55129,7 @@
         <v>468</v>
       </c>
       <c r="D134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>6</v>
@@ -55062,7 +55149,7 @@
         <v>470</v>
       </c>
       <c r="D135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>6</v>
@@ -55082,7 +55169,7 @@
         <v>471</v>
       </c>
       <c r="D136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>6</v>
@@ -55102,7 +55189,7 @@
         <v>472</v>
       </c>
       <c r="D137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>6</v>
@@ -55122,7 +55209,7 @@
         <v>474</v>
       </c>
       <c r="D138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>6</v>
@@ -55142,7 +55229,7 @@
         <v>476</v>
       </c>
       <c r="D139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>6</v>
@@ -55162,7 +55249,7 @@
         <v>477</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>6</v>
@@ -55182,7 +55269,7 @@
         <v>479</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>6</v>
@@ -55202,7 +55289,7 @@
         <v>481</v>
       </c>
       <c r="D142" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>6</v>
@@ -55222,7 +55309,7 @@
         <v>483</v>
       </c>
       <c r="D143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>6</v>
@@ -55242,7 +55329,7 @@
         <v>485</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>6</v>
@@ -55262,7 +55349,7 @@
         <v>486</v>
       </c>
       <c r="D145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>6</v>
@@ -55282,7 +55369,7 @@
         <v>488</v>
       </c>
       <c r="D146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>6</v>
@@ -55302,7 +55389,7 @@
         <v>489</v>
       </c>
       <c r="D147" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>6</v>
@@ -55322,7 +55409,7 @@
         <v>490</v>
       </c>
       <c r="D148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>6</v>
@@ -55342,7 +55429,7 @@
         <v>491</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>6</v>
@@ -55362,7 +55449,7 @@
         <v>492</v>
       </c>
       <c r="D150" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="6" t="s">
         <v>6</v>
@@ -55382,7 +55469,7 @@
         <v>494</v>
       </c>
       <c r="D151" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>6</v>
@@ -55402,7 +55489,7 @@
         <v>495</v>
       </c>
       <c r="D152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>6</v>
@@ -55422,7 +55509,7 @@
         <v>496</v>
       </c>
       <c r="D153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>6</v>
@@ -55442,7 +55529,7 @@
         <v>497</v>
       </c>
       <c r="D154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>6</v>
@@ -55462,7 +55549,7 @@
         <v>498</v>
       </c>
       <c r="D155" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>6</v>
@@ -55482,7 +55569,7 @@
         <v>499</v>
       </c>
       <c r="D156" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>6</v>
@@ -55502,7 +55589,7 @@
         <v>500</v>
       </c>
       <c r="D157" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>6</v>
@@ -55522,7 +55609,7 @@
         <v>501</v>
       </c>
       <c r="D158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>6</v>
@@ -55542,7 +55629,7 @@
         <v>502</v>
       </c>
       <c r="D159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>6</v>
@@ -55562,7 +55649,7 @@
         <v>503</v>
       </c>
       <c r="D160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>6</v>
@@ -55582,7 +55669,7 @@
         <v>504</v>
       </c>
       <c r="D161" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>6</v>
@@ -55602,7 +55689,7 @@
         <v>505</v>
       </c>
       <c r="D162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>6</v>
@@ -55622,7 +55709,7 @@
         <v>506</v>
       </c>
       <c r="D163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>6</v>
@@ -55642,7 +55729,7 @@
         <v>507</v>
       </c>
       <c r="D164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>6</v>
@@ -55662,7 +55749,7 @@
         <v>508</v>
       </c>
       <c r="D165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>6</v>
@@ -55682,7 +55769,7 @@
         <v>509</v>
       </c>
       <c r="D166" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>6</v>
@@ -55702,7 +55789,7 @@
         <v>510</v>
       </c>
       <c r="D167" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>6</v>
@@ -55722,7 +55809,7 @@
         <v>511</v>
       </c>
       <c r="D168" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>6</v>
@@ -55742,7 +55829,7 @@
         <v>512</v>
       </c>
       <c r="D169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>6</v>
@@ -55762,7 +55849,7 @@
         <v>513</v>
       </c>
       <c r="D170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>6</v>
@@ -55782,7 +55869,7 @@
         <v>514</v>
       </c>
       <c r="D171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>6</v>
@@ -55802,7 +55889,7 @@
         <v>515</v>
       </c>
       <c r="D172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>6</v>
@@ -55822,7 +55909,7 @@
         <v>516</v>
       </c>
       <c r="D173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>6</v>
@@ -55842,7 +55929,7 @@
         <v>517</v>
       </c>
       <c r="D174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>6</v>
@@ -55862,7 +55949,7 @@
         <v>518</v>
       </c>
       <c r="D175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>6</v>
@@ -55882,7 +55969,7 @@
         <v>519</v>
       </c>
       <c r="D176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>6</v>
@@ -55902,7 +55989,7 @@
         <v>520</v>
       </c>
       <c r="D177" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>6</v>
@@ -55922,7 +56009,7 @@
         <v>521</v>
       </c>
       <c r="D178" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>6</v>
@@ -55942,7 +56029,7 @@
         <v>522</v>
       </c>
       <c r="D179" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>6</v>
@@ -55962,7 +56049,7 @@
         <v>523</v>
       </c>
       <c r="D180" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>6</v>
@@ -55982,7 +56069,7 @@
         <v>524</v>
       </c>
       <c r="D181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>6</v>
@@ -56002,7 +56089,7 @@
         <v>525</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>6</v>
@@ -56022,7 +56109,7 @@
         <v>526</v>
       </c>
       <c r="D183" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>6</v>
@@ -56042,7 +56129,7 @@
         <v>527</v>
       </c>
       <c r="D184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>6</v>
@@ -56062,7 +56149,7 @@
         <v>528</v>
       </c>
       <c r="D185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>6</v>
@@ -56082,7 +56169,7 @@
         <v>529</v>
       </c>
       <c r="D186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>6</v>
@@ -56102,7 +56189,7 @@
         <v>530</v>
       </c>
       <c r="D187" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>6</v>
@@ -56122,7 +56209,7 @@
         <v>531</v>
       </c>
       <c r="D188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>6</v>
@@ -56142,7 +56229,7 @@
         <v>532</v>
       </c>
       <c r="D189" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>6</v>
@@ -56162,7 +56249,7 @@
         <v>533</v>
       </c>
       <c r="D190" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>6</v>
@@ -56182,7 +56269,7 @@
         <v>534</v>
       </c>
       <c r="D191" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>6</v>
@@ -56202,7 +56289,7 @@
         <v>535</v>
       </c>
       <c r="D192" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>6</v>
@@ -56222,7 +56309,7 @@
         <v>536</v>
       </c>
       <c r="D193" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>6</v>
@@ -56242,7 +56329,7 @@
         <v>537</v>
       </c>
       <c r="D194" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>6</v>
@@ -56262,7 +56349,7 @@
         <v>538</v>
       </c>
       <c r="D195" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>6</v>
@@ -56282,7 +56369,7 @@
         <v>539</v>
       </c>
       <c r="D196" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>6</v>
@@ -56302,7 +56389,7 @@
         <v>540</v>
       </c>
       <c r="D197" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>6</v>
@@ -56322,7 +56409,7 @@
         <v>541</v>
       </c>
       <c r="D198" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>6</v>
@@ -56342,7 +56429,7 @@
         <v>542</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" s="6" t="s">
         <v>6</v>
@@ -56362,7 +56449,7 @@
         <v>543</v>
       </c>
       <c r="D200" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>6</v>
@@ -56382,7 +56469,7 @@
         <v>544</v>
       </c>
       <c r="D201" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>6</v>
@@ -56402,7 +56489,7 @@
         <v>545</v>
       </c>
       <c r="D202" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>6</v>
@@ -56422,7 +56509,7 @@
         <v>546</v>
       </c>
       <c r="D203" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>6</v>
@@ -56442,7 +56529,7 @@
         <v>547</v>
       </c>
       <c r="D204" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" s="6" t="s">
         <v>6</v>
@@ -56462,7 +56549,7 @@
         <v>548</v>
       </c>
       <c r="D205" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" s="6" t="s">
         <v>6</v>
@@ -56482,7 +56569,7 @@
         <v>549</v>
       </c>
       <c r="D206" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" s="6" t="s">
         <v>6</v>
@@ -56502,7 +56589,7 @@
         <v>550</v>
       </c>
       <c r="D207" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>6</v>
@@ -56522,7 +56609,7 @@
         <v>551</v>
       </c>
       <c r="D208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>6</v>
@@ -56542,7 +56629,7 @@
         <v>552</v>
       </c>
       <c r="D209" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>6</v>
@@ -56562,7 +56649,7 @@
         <v>554</v>
       </c>
       <c r="D210" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>6</v>
@@ -56582,7 +56669,7 @@
         <v>556</v>
       </c>
       <c r="D211" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>6</v>
@@ -56602,7 +56689,7 @@
         <v>558</v>
       </c>
       <c r="D212" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>6</v>
@@ -56622,7 +56709,7 @@
         <v>560</v>
       </c>
       <c r="D213" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>6</v>
@@ -56642,7 +56729,7 @@
         <v>562</v>
       </c>
       <c r="D214" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>6</v>
@@ -56662,7 +56749,7 @@
         <v>564</v>
       </c>
       <c r="D215" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>6</v>
@@ -56682,7 +56769,7 @@
         <v>566</v>
       </c>
       <c r="D216" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>6</v>
@@ -56702,7 +56789,7 @@
         <v>567</v>
       </c>
       <c r="D217" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>6</v>
@@ -56722,7 +56809,7 @@
         <v>568</v>
       </c>
       <c r="D218" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>6</v>
@@ -56742,7 +56829,7 @@
         <v>570</v>
       </c>
       <c r="D219" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>6</v>
@@ -56762,7 +56849,7 @@
         <v>572</v>
       </c>
       <c r="D220" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>6</v>
@@ -56782,7 +56869,7 @@
         <v>574</v>
       </c>
       <c r="D221" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" s="6" t="s">
         <v>6</v>
@@ -56802,7 +56889,7 @@
         <v>575</v>
       </c>
       <c r="D222" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" s="6" t="s">
         <v>6</v>
@@ -56822,7 +56909,7 @@
         <v>576</v>
       </c>
       <c r="D223" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" s="6" t="s">
         <v>6</v>
@@ -56842,7 +56929,7 @@
         <v>577</v>
       </c>
       <c r="D224" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" s="6" t="s">
         <v>6</v>
@@ -56862,7 +56949,7 @@
         <v>578</v>
       </c>
       <c r="D225" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" s="6" t="s">
         <v>6</v>
@@ -56882,7 +56969,7 @@
         <v>579</v>
       </c>
       <c r="D226" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" s="6" t="s">
         <v>6</v>
@@ -56902,7 +56989,7 @@
         <v>580</v>
       </c>
       <c r="D227" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>6</v>
@@ -56922,7 +57009,7 @@
         <v>581</v>
       </c>
       <c r="D228" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>6</v>
@@ -56942,7 +57029,7 @@
         <v>582</v>
       </c>
       <c r="D229" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>6</v>
@@ -56962,7 +57049,7 @@
         <v>583</v>
       </c>
       <c r="D230" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>6</v>
@@ -56982,7 +57069,7 @@
         <v>584</v>
       </c>
       <c r="D231" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" s="6" t="s">
         <v>6</v>
@@ -57002,7 +57089,7 @@
         <v>585</v>
       </c>
       <c r="D232" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>6</v>
@@ -57022,7 +57109,7 @@
         <v>586</v>
       </c>
       <c r="D233" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>6</v>
@@ -57042,7 +57129,7 @@
         <v>587</v>
       </c>
       <c r="D234" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" s="6" t="s">
         <v>6</v>
@@ -57062,7 +57149,7 @@
         <v>588</v>
       </c>
       <c r="D235" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" s="6" t="s">
         <v>6</v>
@@ -57082,7 +57169,7 @@
         <v>589</v>
       </c>
       <c r="D236" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" s="6" t="s">
         <v>6</v>
@@ -57102,7 +57189,7 @@
         <v>590</v>
       </c>
       <c r="D237" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>6</v>
@@ -57122,7 +57209,7 @@
         <v>591</v>
       </c>
       <c r="D238" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" s="6" t="s">
         <v>6</v>
@@ -57142,7 +57229,7 @@
         <v>592</v>
       </c>
       <c r="D239" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" s="6" t="s">
         <v>6</v>
@@ -57162,7 +57249,7 @@
         <v>593</v>
       </c>
       <c r="D240" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>6</v>
@@ -57182,7 +57269,7 @@
         <v>594</v>
       </c>
       <c r="D241" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>6</v>
@@ -57202,7 +57289,7 @@
         <v>595</v>
       </c>
       <c r="D242" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" s="6" t="s">
         <v>6</v>
@@ -57222,7 +57309,7 @@
         <v>596</v>
       </c>
       <c r="D243" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>6</v>
@@ -57242,7 +57329,7 @@
         <v>597</v>
       </c>
       <c r="D244" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" s="6" t="s">
         <v>6</v>
@@ -57262,7 +57349,7 @@
         <v>598</v>
       </c>
       <c r="D245" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>6</v>
@@ -57282,7 +57369,7 @@
         <v>599</v>
       </c>
       <c r="D246" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" s="6" t="s">
         <v>6</v>
@@ -57302,7 +57389,7 @@
         <v>600</v>
       </c>
       <c r="D247" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>6</v>
@@ -57322,7 +57409,7 @@
         <v>601</v>
       </c>
       <c r="D248" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>6</v>
@@ -57342,7 +57429,7 @@
         <v>602</v>
       </c>
       <c r="D249" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>6</v>
@@ -57362,7 +57449,7 @@
         <v>603</v>
       </c>
       <c r="D250" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>6</v>
@@ -57382,7 +57469,7 @@
         <v>604</v>
       </c>
       <c r="D251" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>6</v>
@@ -57402,7 +57489,7 @@
         <v>605</v>
       </c>
       <c r="D252" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>6</v>
@@ -57422,7 +57509,7 @@
         <v>606</v>
       </c>
       <c r="D253" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>6</v>
@@ -57442,7 +57529,7 @@
         <v>607</v>
       </c>
       <c r="D254" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>6</v>
@@ -57462,7 +57549,7 @@
         <v>608</v>
       </c>
       <c r="D255" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>6</v>
@@ -57482,7 +57569,7 @@
         <v>609</v>
       </c>
       <c r="D256" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>6</v>
@@ -57502,7 +57589,7 @@
         <v>610</v>
       </c>
       <c r="D257" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>6</v>
@@ -57522,7 +57609,7 @@
         <v>611</v>
       </c>
       <c r="D258" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>6</v>
@@ -57542,7 +57629,7 @@
         <v>612</v>
       </c>
       <c r="D259" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>6</v>
@@ -57562,7 +57649,7 @@
         <v>614</v>
       </c>
       <c r="D260" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>615</v>
@@ -57582,7 +57669,7 @@
         <v>618</v>
       </c>
       <c r="D261" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>619</v>
@@ -57602,7 +57689,7 @@
         <v>622</v>
       </c>
       <c r="D262" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>623</v>
@@ -57622,7 +57709,7 @@
         <v>626</v>
       </c>
       <c r="D263" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>627</v>
@@ -57642,7 +57729,7 @@
         <v>630</v>
       </c>
       <c r="D264" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>631</v>
@@ -57662,7 +57749,7 @@
         <v>634</v>
       </c>
       <c r="D265" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>635</v>
@@ -57682,7 +57769,7 @@
         <v>638</v>
       </c>
       <c r="D266" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>639</v>
@@ -57702,7 +57789,7 @@
         <v>641</v>
       </c>
       <c r="D267" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>642</v>
@@ -57722,7 +57809,7 @@
         <v>644</v>
       </c>
       <c r="D268" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>645</v>
@@ -57742,7 +57829,7 @@
         <v>647</v>
       </c>
       <c r="D269" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>648</v>
@@ -57762,7 +57849,7 @@
         <v>650</v>
       </c>
       <c r="D270" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>651</v>
@@ -57782,7 +57869,7 @@
         <v>654</v>
       </c>
       <c r="D271" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>655</v>
@@ -57802,7 +57889,7 @@
         <v>658</v>
       </c>
       <c r="D272" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>659</v>
@@ -57822,7 +57909,7 @@
         <v>662</v>
       </c>
       <c r="D273" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>663</v>
@@ -57842,7 +57929,7 @@
         <v>666</v>
       </c>
       <c r="D274" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>667</v>
@@ -57862,7 +57949,7 @@
         <v>670</v>
       </c>
       <c r="D275" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>671</v>
@@ -57882,7 +57969,7 @@
         <v>674</v>
       </c>
       <c r="D276" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>675</v>
@@ -57902,7 +57989,7 @@
         <v>678</v>
       </c>
       <c r="D277" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>679</v>
@@ -57922,7 +58009,7 @@
         <v>682</v>
       </c>
       <c r="D278" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>683</v>
@@ -57942,7 +58029,7 @@
         <v>686</v>
       </c>
       <c r="D279" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>687</v>
@@ -57962,7 +58049,7 @@
         <v>690</v>
       </c>
       <c r="D280" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>691</v>
@@ -57982,7 +58069,7 @@
         <v>693</v>
       </c>
       <c r="D281" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>694</v>
@@ -58002,7 +58089,7 @@
         <v>696</v>
       </c>
       <c r="D282" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>697</v>
@@ -58022,7 +58109,7 @@
         <v>699</v>
       </c>
       <c r="D283" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>700</v>
@@ -58042,7 +58129,7 @@
         <v>702</v>
       </c>
       <c r="D284" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>703</v>
@@ -58062,7 +58149,7 @@
         <v>705</v>
       </c>
       <c r="D285" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>706</v>
@@ -58082,7 +58169,7 @@
         <v>709</v>
       </c>
       <c r="D286" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>710</v>
@@ -58102,7 +58189,7 @@
         <v>712</v>
       </c>
       <c r="D287" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>713</v>
@@ -58122,7 +58209,7 @@
         <v>716</v>
       </c>
       <c r="D288" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>717</v>
@@ -58142,7 +58229,7 @@
         <v>720</v>
       </c>
       <c r="D289" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>721</v>
@@ -58162,7 +58249,7 @@
         <v>724</v>
       </c>
       <c r="D290" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>725</v>
@@ -58182,7 +58269,7 @@
         <v>728</v>
       </c>
       <c r="D291" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>729</v>
@@ -58202,7 +58289,7 @@
         <v>731</v>
       </c>
       <c r="D292" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>732</v>
@@ -58222,7 +58309,7 @@
         <v>734</v>
       </c>
       <c r="D293" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>735</v>
@@ -58242,7 +58329,7 @@
         <v>738</v>
       </c>
       <c r="D294" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>739</v>
@@ -58262,7 +58349,7 @@
         <v>741</v>
       </c>
       <c r="D295" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>742</v>
@@ -58282,7 +58369,7 @@
         <v>744</v>
       </c>
       <c r="D296" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>745</v>
@@ -58302,7 +58389,7 @@
         <v>747</v>
       </c>
       <c r="D297" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>748</v>
@@ -58322,7 +58409,7 @@
         <v>750</v>
       </c>
       <c r="D298" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>751</v>
@@ -58342,7 +58429,7 @@
         <v>753</v>
       </c>
       <c r="D299" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>754</v>
@@ -58362,7 +58449,7 @@
         <v>756</v>
       </c>
       <c r="D300" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>757</v>
@@ -58382,7 +58469,7 @@
         <v>760</v>
       </c>
       <c r="D301" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>761</v>
@@ -58402,7 +58489,7 @@
         <v>764</v>
       </c>
       <c r="D302" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>765</v>
@@ -58422,7 +58509,7 @@
         <v>767</v>
       </c>
       <c r="D303" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>768</v>
@@ -58442,7 +58529,7 @@
         <v>771</v>
       </c>
       <c r="D304" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>772</v>
@@ -58462,7 +58549,7 @@
         <v>775</v>
       </c>
       <c r="D305" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>776</v>
@@ -58482,7 +58569,7 @@
         <v>173</v>
       </c>
       <c r="D306" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>779</v>
@@ -58502,7 +58589,7 @@
         <v>781</v>
       </c>
       <c r="D307" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>782</v>
@@ -58522,7 +58609,7 @@
         <v>784</v>
       </c>
       <c r="D308" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>785</v>
@@ -58542,7 +58629,7 @@
         <v>787</v>
       </c>
       <c r="D309" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>788</v>
@@ -58562,7 +58649,7 @@
         <v>791</v>
       </c>
       <c r="D310" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>792</v>
@@ -58582,7 +58669,7 @@
         <v>794</v>
       </c>
       <c r="D311" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>795</v>
@@ -58602,7 +58689,7 @@
         <v>796</v>
       </c>
       <c r="D312" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>797</v>
@@ -58622,7 +58709,7 @@
         <v>799</v>
       </c>
       <c r="D313" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>800</v>
@@ -58642,7 +58729,7 @@
         <v>802</v>
       </c>
       <c r="D314" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>803</v>
@@ -58662,7 +58749,7 @@
         <v>805</v>
       </c>
       <c r="D315" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>806</v>
@@ -58682,7 +58769,7 @@
         <v>808</v>
       </c>
       <c r="D316" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>809</v>
@@ -58702,7 +58789,7 @@
         <v>811</v>
       </c>
       <c r="D317" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>812</v>
@@ -58722,7 +58809,7 @@
         <v>814</v>
       </c>
       <c r="D318" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>815</v>
@@ -58742,7 +58829,7 @@
         <v>817</v>
       </c>
       <c r="D319" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>818</v>
@@ -58759,7 +58846,7 @@
         <v>819</v>
       </c>
       <c r="D320" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>820</v>
@@ -58779,7 +58866,7 @@
         <v>821</v>
       </c>
       <c r="D321" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>822</v>
@@ -58799,7 +58886,7 @@
         <v>824</v>
       </c>
       <c r="D322" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>825</v>
@@ -58819,7 +58906,7 @@
         <v>826</v>
       </c>
       <c r="D323" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>827</v>
@@ -58839,7 +58926,7 @@
         <v>829</v>
       </c>
       <c r="D324" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>830</v>
@@ -58859,7 +58946,7 @@
         <v>831</v>
       </c>
       <c r="D325" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>832</v>
@@ -58879,7 +58966,7 @@
         <v>833</v>
       </c>
       <c r="D326" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>834</v>
@@ -58899,7 +58986,7 @@
         <v>835</v>
       </c>
       <c r="D327" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>836</v>
@@ -58919,7 +59006,7 @@
         <v>837</v>
       </c>
       <c r="D328" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>838</v>
@@ -58939,7 +59026,7 @@
         <v>839</v>
       </c>
       <c r="D329" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>840</v>
@@ -58959,7 +59046,7 @@
         <v>841</v>
       </c>
       <c r="D330" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>842</v>
@@ -58979,7 +59066,7 @@
         <v>843</v>
       </c>
       <c r="D331" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>6</v>
@@ -58999,7 +59086,7 @@
         <v>845</v>
       </c>
       <c r="D332" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>846</v>
@@ -59019,7 +59106,7 @@
         <v>847</v>
       </c>
       <c r="D333" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>6</v>
@@ -59038,8 +59125,8 @@
       <c r="C334" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="D334" s="2">
-        <v>0</v>
+      <c r="D334" s="3">
+        <v>1</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>850</v>
@@ -59058,8 +59145,8 @@
       <c r="C335" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="D335" s="2">
-        <v>0</v>
+      <c r="D335" s="3">
+        <v>1</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>854</v>
@@ -59078,8 +59165,8 @@
       <c r="C336" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D336" s="2">
-        <v>0</v>
+      <c r="D336" s="3">
+        <v>1</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>858</v>
@@ -59098,8 +59185,8 @@
       <c r="C337" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D337" s="2">
-        <v>0</v>
+      <c r="D337" s="3">
+        <v>1</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>862</v>
@@ -59118,8 +59205,8 @@
       <c r="C338" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D338" s="2">
-        <v>0</v>
+      <c r="D338" s="3">
+        <v>1</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>866</v>
@@ -59138,8 +59225,8 @@
       <c r="C339" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="D339" s="2">
-        <v>0</v>
+      <c r="D339" s="3">
+        <v>1</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>870</v>
@@ -59158,8 +59245,8 @@
       <c r="C340" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="D340" s="2">
-        <v>0</v>
+      <c r="D340" s="3">
+        <v>1</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>874</v>
@@ -59178,8 +59265,8 @@
       <c r="C341" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D341" s="2">
-        <v>0</v>
+      <c r="D341" s="3">
+        <v>1</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>878</v>
@@ -59198,8 +59285,8 @@
       <c r="C342" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D342" s="2">
-        <v>0</v>
+      <c r="D342" s="3">
+        <v>1</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>882</v>
@@ -59218,8 +59305,8 @@
       <c r="C343" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D343" s="2">
-        <v>0</v>
+      <c r="D343" s="3">
+        <v>1</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>886</v>
@@ -59238,8 +59325,8 @@
       <c r="C344" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D344" s="2">
-        <v>0</v>
+      <c r="D344" s="3">
+        <v>1</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>890</v>
@@ -59258,8 +59345,8 @@
       <c r="C345" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="D345" s="2">
-        <v>0</v>
+      <c r="D345" s="3">
+        <v>1</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>894</v>
@@ -59278,8 +59365,8 @@
       <c r="C346" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="D346" s="2">
-        <v>0</v>
+      <c r="D346" s="3">
+        <v>1</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>898</v>
@@ -59298,8 +59385,8 @@
       <c r="C347" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D347" s="2">
-        <v>0</v>
+      <c r="D347" s="3">
+        <v>1</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>902</v>
@@ -59318,8 +59405,8 @@
       <c r="C348" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D348" s="2">
-        <v>0</v>
+      <c r="D348" s="3">
+        <v>1</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>906</v>
@@ -59338,8 +59425,8 @@
       <c r="C349" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D349" s="2">
-        <v>0</v>
+      <c r="D349" s="3">
+        <v>1</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>910</v>
@@ -59358,8 +59445,8 @@
       <c r="C350" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="D350" s="2">
-        <v>0</v>
+      <c r="D350" s="3">
+        <v>1</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>914</v>
@@ -59378,8 +59465,8 @@
       <c r="C351" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D351" s="2">
-        <v>0</v>
+      <c r="D351" s="3">
+        <v>1</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>918</v>
@@ -59398,8 +59485,8 @@
       <c r="C352" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="D352" s="2">
-        <v>0</v>
+      <c r="D352" s="3">
+        <v>1</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>922</v>
@@ -59418,8 +59505,8 @@
       <c r="C353" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="D353" s="2">
-        <v>0</v>
+      <c r="D353" s="3">
+        <v>1</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>926</v>
@@ -59438,8 +59525,8 @@
       <c r="C354" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D354" s="2">
-        <v>0</v>
+      <c r="D354" s="3">
+        <v>1</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>930</v>
@@ -59458,8 +59545,8 @@
       <c r="C355" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="D355" s="2">
-        <v>0</v>
+      <c r="D355" s="3">
+        <v>1</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>934</v>
@@ -59478,8 +59565,8 @@
       <c r="C356" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="D356" s="2">
-        <v>0</v>
+      <c r="D356" s="3">
+        <v>1</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>938</v>
@@ -59498,8 +59585,8 @@
       <c r="C357" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="D357" s="2">
-        <v>0</v>
+      <c r="D357" s="3">
+        <v>1</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>942</v>
@@ -59518,8 +59605,8 @@
       <c r="C358" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="D358" s="2">
-        <v>0</v>
+      <c r="D358" s="3">
+        <v>1</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>946</v>
@@ -59538,8 +59625,8 @@
       <c r="C359" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="D359" s="2">
-        <v>0</v>
+      <c r="D359" s="3">
+        <v>1</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>950</v>
@@ -59558,8 +59645,8 @@
       <c r="C360" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="D360" s="2">
-        <v>0</v>
+      <c r="D360" s="3">
+        <v>1</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>954</v>
@@ -59578,8 +59665,8 @@
       <c r="C361" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D361" s="2">
-        <v>0</v>
+      <c r="D361" s="3">
+        <v>1</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>958</v>
@@ -59598,8 +59685,8 @@
       <c r="C362" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="D362" s="2">
-        <v>0</v>
+      <c r="D362" s="3">
+        <v>1</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>962</v>
@@ -59618,8 +59705,8 @@
       <c r="C363" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="D363" s="2">
-        <v>0</v>
+      <c r="D363" s="3">
+        <v>1</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>966</v>
@@ -59638,8 +59725,8 @@
       <c r="C364" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="D364" s="2">
-        <v>0</v>
+      <c r="D364" s="3">
+        <v>1</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>970</v>
@@ -59658,8 +59745,8 @@
       <c r="C365" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="D365" s="2">
-        <v>0</v>
+      <c r="D365" s="3">
+        <v>1</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>974</v>
@@ -59678,8 +59765,8 @@
       <c r="C366" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D366" s="2">
-        <v>0</v>
+      <c r="D366" s="3">
+        <v>1</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>978</v>
@@ -59698,8 +59785,8 @@
       <c r="C367" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="D367" s="2">
-        <v>0</v>
+      <c r="D367" s="3">
+        <v>1</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>981</v>
@@ -59718,8 +59805,8 @@
       <c r="C368" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="D368" s="2">
-        <v>0</v>
+      <c r="D368" s="3">
+        <v>1</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>984</v>
@@ -59738,8 +59825,8 @@
       <c r="C369" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="D369" s="2">
-        <v>0</v>
+      <c r="D369" s="3">
+        <v>1</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>987</v>
@@ -59758,8 +59845,8 @@
       <c r="C370" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D370" s="2">
-        <v>0</v>
+      <c r="D370" s="3">
+        <v>1</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>990</v>
@@ -59778,8 +59865,8 @@
       <c r="C371" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="D371" s="2">
-        <v>0</v>
+      <c r="D371" s="3">
+        <v>1</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>993</v>
@@ -59798,8 +59885,8 @@
       <c r="C372" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="D372" s="2">
-        <v>0</v>
+      <c r="D372" s="3">
+        <v>1</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>996</v>
@@ -59818,8 +59905,8 @@
       <c r="C373" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="D373" s="2">
-        <v>0</v>
+      <c r="D373" s="3">
+        <v>1</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>999</v>
@@ -59838,8 +59925,8 @@
       <c r="C374" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="D374" s="2">
-        <v>0</v>
+      <c r="D374" s="3">
+        <v>1</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>1003</v>
@@ -59858,8 +59945,8 @@
       <c r="C375" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="D375" s="2">
-        <v>0</v>
+      <c r="D375" s="3">
+        <v>1</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>1007</v>
@@ -59878,8 +59965,8 @@
       <c r="C376" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="D376" s="2">
-        <v>0</v>
+      <c r="D376" s="3">
+        <v>1</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>1010</v>
@@ -59898,8 +59985,8 @@
       <c r="C377" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="D377" s="2">
-        <v>0</v>
+      <c r="D377" s="3">
+        <v>1</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>1014</v>
@@ -59918,8 +60005,8 @@
       <c r="C378" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="D378" s="2">
-        <v>0</v>
+      <c r="D378" s="3">
+        <v>1</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>1018</v>
@@ -59938,8 +60025,8 @@
       <c r="C379" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="D379" s="2">
-        <v>0</v>
+      <c r="D379" s="3">
+        <v>1</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>1022</v>
@@ -59958,8 +60045,8 @@
       <c r="C380" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="D380" s="2">
-        <v>0</v>
+      <c r="D380" s="3">
+        <v>1</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>1026</v>
@@ -59978,8 +60065,8 @@
       <c r="C381" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="D381" s="2">
-        <v>0</v>
+      <c r="D381" s="3">
+        <v>1</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>1030</v>
@@ -59998,8 +60085,8 @@
       <c r="C382" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="D382" s="2">
-        <v>0</v>
+      <c r="D382" s="3">
+        <v>1</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>1034</v>
@@ -60018,8 +60105,8 @@
       <c r="C383" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="D383" s="2">
-        <v>0</v>
+      <c r="D383" s="3">
+        <v>1</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>1038</v>
@@ -60038,8 +60125,8 @@
       <c r="C384" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="D384" s="2">
-        <v>0</v>
+      <c r="D384" s="3">
+        <v>1</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>1042</v>
@@ -60058,8 +60145,8 @@
       <c r="C385" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="D385" s="2">
-        <v>0</v>
+      <c r="D385" s="3">
+        <v>1</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>1046</v>
@@ -60078,8 +60165,8 @@
       <c r="C386" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="D386" s="2">
-        <v>0</v>
+      <c r="D386" s="3">
+        <v>1</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>1050</v>
@@ -60098,8 +60185,8 @@
       <c r="C387" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="D387" s="2">
-        <v>0</v>
+      <c r="D387" s="3">
+        <v>1</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>1054</v>
@@ -60118,8 +60205,8 @@
       <c r="C388" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="D388" s="2">
-        <v>0</v>
+      <c r="D388" s="3">
+        <v>1</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>1058</v>
@@ -60138,8 +60225,8 @@
       <c r="C389" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="D389" s="2">
-        <v>0</v>
+      <c r="D389" s="3">
+        <v>1</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>1062</v>
@@ -60158,8 +60245,8 @@
       <c r="C390" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="D390" s="2">
-        <v>0</v>
+      <c r="D390" s="3">
+        <v>1</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>1066</v>
@@ -60178,8 +60265,8 @@
       <c r="C391" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="D391" s="2">
-        <v>0</v>
+      <c r="D391" s="3">
+        <v>1</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>1069</v>
@@ -60198,8 +60285,8 @@
       <c r="C392" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="D392" s="2">
-        <v>0</v>
+      <c r="D392" s="3">
+        <v>1</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>1073</v>
@@ -60218,8 +60305,8 @@
       <c r="C393" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="D393" s="2">
-        <v>0</v>
+      <c r="D393" s="3">
+        <v>1</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>1077</v>
@@ -60238,8 +60325,8 @@
       <c r="C394" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D394" s="2">
-        <v>0</v>
+      <c r="D394" s="3">
+        <v>1</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>1081</v>
@@ -60258,8 +60345,8 @@
       <c r="C395" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D395" s="2">
-        <v>0</v>
+      <c r="D395" s="3">
+        <v>1</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>1085</v>
@@ -60278,8 +60365,8 @@
       <c r="C396" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="D396" s="2">
-        <v>0</v>
+      <c r="D396" s="3">
+        <v>1</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>1089</v>
@@ -60298,8 +60385,8 @@
       <c r="C397" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="D397" s="2">
-        <v>0</v>
+      <c r="D397" s="3">
+        <v>1</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>1093</v>
@@ -60318,8 +60405,8 @@
       <c r="C398" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="D398" s="2">
-        <v>0</v>
+      <c r="D398" s="3">
+        <v>1</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>1097</v>
@@ -60338,8 +60425,8 @@
       <c r="C399" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="D399" s="2">
-        <v>0</v>
+      <c r="D399" s="3">
+        <v>1</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>1101</v>
@@ -60358,8 +60445,8 @@
       <c r="C400" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="D400" s="2">
-        <v>0</v>
+      <c r="D400" s="3">
+        <v>1</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>1105</v>
@@ -60378,8 +60465,8 @@
       <c r="C401" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="D401" s="2">
-        <v>0</v>
+      <c r="D401" s="3">
+        <v>1</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>1109</v>
@@ -60398,8 +60485,8 @@
       <c r="C402" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="D402" s="2">
-        <v>0</v>
+      <c r="D402" s="3">
+        <v>1</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>1113</v>
@@ -60418,8 +60505,8 @@
       <c r="C403" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="D403" s="2">
-        <v>0</v>
+      <c r="D403" s="3">
+        <v>1</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>1117</v>
@@ -60438,8 +60525,8 @@
       <c r="C404" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="D404" s="2">
-        <v>0</v>
+      <c r="D404" s="3">
+        <v>1</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>1121</v>
@@ -60458,8 +60545,8 @@
       <c r="C405" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="D405" s="2">
-        <v>0</v>
+      <c r="D405" s="3">
+        <v>1</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>1124</v>
@@ -60478,8 +60565,8 @@
       <c r="C406" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="D406" s="2">
-        <v>0</v>
+      <c r="D406" s="3">
+        <v>1</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>1127</v>
@@ -60498,8 +60585,8 @@
       <c r="C407" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="D407" s="2">
-        <v>0</v>
+      <c r="D407" s="3">
+        <v>1</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>1130</v>
@@ -60518,8 +60605,8 @@
       <c r="C408" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="D408" s="2">
-        <v>0</v>
+      <c r="D408" s="3">
+        <v>1</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>1133</v>
@@ -60538,8 +60625,8 @@
       <c r="C409" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="D409" s="2">
-        <v>0</v>
+      <c r="D409" s="3">
+        <v>1</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>1136</v>
@@ -60558,8 +60645,8 @@
       <c r="C410" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="D410" s="2">
-        <v>0</v>
+      <c r="D410" s="3">
+        <v>1</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>1139</v>
@@ -60578,8 +60665,8 @@
       <c r="C411" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="D411" s="2">
-        <v>0</v>
+      <c r="D411" s="3">
+        <v>1</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>1143</v>
@@ -60598,8 +60685,8 @@
       <c r="C412" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="D412" s="2">
-        <v>0</v>
+      <c r="D412" s="3">
+        <v>1</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>1147</v>
@@ -60618,8 +60705,8 @@
       <c r="C413" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="D413" s="2">
-        <v>0</v>
+      <c r="D413" s="3">
+        <v>1</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>1151</v>
@@ -60638,8 +60725,8 @@
       <c r="C414" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="D414" s="2">
-        <v>0</v>
+      <c r="D414" s="3">
+        <v>1</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>1155</v>
@@ -60658,8 +60745,8 @@
       <c r="C415" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="D415" s="2">
-        <v>0</v>
+      <c r="D415" s="3">
+        <v>1</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>1159</v>
@@ -60678,8 +60765,8 @@
       <c r="C416" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="D416" s="2">
-        <v>0</v>
+      <c r="D416" s="3">
+        <v>1</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>1163</v>
@@ -60698,8 +60785,8 @@
       <c r="C417" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="D417" s="2">
-        <v>0</v>
+      <c r="D417" s="3">
+        <v>1</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>1166</v>
@@ -60718,8 +60805,8 @@
       <c r="C418" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="D418" s="2">
-        <v>0</v>
+      <c r="D418" s="3">
+        <v>1</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>1170</v>
@@ -60738,8 +60825,8 @@
       <c r="C419" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="D419" s="2">
-        <v>0</v>
+      <c r="D419" s="3">
+        <v>1</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>1174</v>
@@ -60758,8 +60845,8 @@
       <c r="C420" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="D420" s="2">
-        <v>0</v>
+      <c r="D420" s="3">
+        <v>1</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>1178</v>
@@ -60778,8 +60865,8 @@
       <c r="C421" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="D421" s="2">
-        <v>0</v>
+      <c r="D421" s="3">
+        <v>1</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>1182</v>
@@ -60798,8 +60885,8 @@
       <c r="C422" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="D422" s="2">
-        <v>0</v>
+      <c r="D422" s="3">
+        <v>1</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>1186</v>
@@ -60818,8 +60905,8 @@
       <c r="C423" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="D423" s="2">
-        <v>0</v>
+      <c r="D423" s="3">
+        <v>1</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>1190</v>
@@ -60838,8 +60925,8 @@
       <c r="C424" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="D424" s="2">
-        <v>0</v>
+      <c r="D424" s="3">
+        <v>1</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>1194</v>
@@ -60858,8 +60945,8 @@
       <c r="C425" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="D425" s="2">
-        <v>0</v>
+      <c r="D425" s="3">
+        <v>1</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>1198</v>
@@ -60878,8 +60965,8 @@
       <c r="C426" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="D426" s="2">
-        <v>0</v>
+      <c r="D426" s="3">
+        <v>1</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>1201</v>
@@ -60898,8 +60985,8 @@
       <c r="C427" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="D427" s="2">
-        <v>0</v>
+      <c r="D427" s="3">
+        <v>1</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>1205</v>
@@ -60918,8 +61005,8 @@
       <c r="C428" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="D428" s="2">
-        <v>0</v>
+      <c r="D428" s="3">
+        <v>1</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>1208</v>
@@ -61028,7 +61115,232 @@
         <v>1230</v>
       </c>
     </row>
+    <row r="434" customHeight="1" spans="1:6">
+      <c r="A434" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C434" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D434" s="3">
+        <v>1</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" customHeight="1" spans="1:6">
+      <c r="A435" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D435" s="3">
+        <v>1</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" customHeight="1" spans="1:6">
+      <c r="A436" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C436" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D436" s="3">
+        <v>1</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" customHeight="1" spans="1:6">
+      <c r="A437" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D437" s="3">
+        <v>1</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" customHeight="1" spans="1:6">
+      <c r="A438" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C438" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D438" s="3">
+        <v>1</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" customHeight="1" spans="1:6">
+      <c r="A439" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D439" s="3">
+        <v>1</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" customHeight="1" spans="2:6">
+      <c r="B440" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C440" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D440" s="3">
+        <v>1</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" customHeight="1" spans="2:6">
+      <c r="B441" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D441" s="3">
+        <v>1</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" customHeight="1" spans="2:6">
+      <c r="B442" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D442" s="3">
+        <v>1</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" customHeight="1" spans="2:6">
+      <c r="B443" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D443" s="3">
+        <v>1</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" customHeight="1" spans="2:6">
+      <c r="B444" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D444" s="3">
+        <v>1</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" customHeight="1" spans="2:6">
+      <c r="B445" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D445" s="3">
+        <v>1</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E434" r:id="rId1" display="https://www.facebook.com/tintuc247247/posts/pfbid02xyTUYFMkhWH1gukupKiA5YodFAty43GgFs6a64wGJ8ibhQiuPvJYSggUUY9ZXHsql"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
